--- a/Warehouse_Ship_Days.xlsx
+++ b/Warehouse_Ship_Days.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Projects\ASN_Sub_Automator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E527C8-2CAF-4909-9CFC-4A4D8266412D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AF19D1-AA31-41A5-A90C-8F908F2E4F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1956" yWindow="0" windowWidth="21084" windowHeight="11664" xr2:uid="{6294DBFF-D57F-4B78-B461-50A917CE3F08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6294DBFF-D57F-4B78-B461-50A917CE3F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="327">
   <si>
     <t>DFW6</t>
   </si>
@@ -122,895 +122,901 @@
     <t>CHA2 - Charleston, TN</t>
   </si>
   <si>
+    <t>DEN2 - Aurora, CO</t>
+  </si>
+  <si>
+    <t>FOE1</t>
+  </si>
+  <si>
+    <t>FOE1 - KANSAS CITY, KS</t>
+  </si>
+  <si>
+    <t>GSP1</t>
+  </si>
+  <si>
+    <t>GSP1 - Spartanburg, SC</t>
+  </si>
+  <si>
+    <t>HSV1</t>
+  </si>
+  <si>
+    <t>HSV1 - MADISON, AL</t>
+  </si>
+  <si>
+    <t>ICT2</t>
+  </si>
+  <si>
+    <t>ICT2 - PARK CITY, KS</t>
+  </si>
+  <si>
+    <t>IGQ2</t>
+  </si>
+  <si>
+    <t>IGQ2 - University Park, IL</t>
+  </si>
+  <si>
+    <t>JVL1</t>
+  </si>
+  <si>
+    <t>JVL1 - BELOIT, WI</t>
+  </si>
+  <si>
+    <t>LFT1</t>
+  </si>
+  <si>
+    <t>LFT1 - CARENCRO, LA</t>
+  </si>
+  <si>
+    <t>MDW2</t>
+  </si>
+  <si>
+    <t>MDW2 - Joliet, IL</t>
+  </si>
+  <si>
+    <t>MDW6</t>
+  </si>
+  <si>
+    <t>MDW6 - ROMEOVILLE, IL</t>
+  </si>
+  <si>
+    <t>MDW8</t>
+  </si>
+  <si>
+    <t>MDW8 - Waukegan, IL</t>
+  </si>
+  <si>
+    <t>MDW9</t>
+  </si>
+  <si>
+    <t>MDW9 - Aurora, IL</t>
+  </si>
+  <si>
+    <t>MEM1</t>
+  </si>
+  <si>
+    <t>MEM1 - Memphis, TN</t>
+  </si>
+  <si>
+    <t>MEM2</t>
+  </si>
+  <si>
+    <t>MEM2 - BYHALIA, MS</t>
+  </si>
+  <si>
+    <t>MEM6</t>
+  </si>
+  <si>
+    <t>MEM6 - OLIVE BRANCH, MS</t>
+  </si>
+  <si>
+    <t>MGE3</t>
+  </si>
+  <si>
+    <t>MGE3 - Jefferson, GA</t>
+  </si>
+  <si>
+    <t>MKC4</t>
+  </si>
+  <si>
+    <t>MKC4 - Edgerton , KS</t>
+  </si>
+  <si>
+    <t>ORD2</t>
+  </si>
+  <si>
+    <t>ORD2 - CHANNAHON, IL</t>
+  </si>
+  <si>
+    <t>PIL1</t>
+  </si>
+  <si>
+    <t>PIL1 - HORN LAKE, MS</t>
+  </si>
+  <si>
+    <t>SAT4</t>
+  </si>
+  <si>
+    <t>SAT4 - SAN ANTONIO, TX</t>
+  </si>
+  <si>
+    <t>SAV3</t>
+  </si>
+  <si>
+    <t>SAV3 - Macon, GA</t>
+  </si>
+  <si>
+    <t>STL3</t>
+  </si>
+  <si>
+    <t>STL3 - REPUBLIC, MO</t>
+  </si>
+  <si>
+    <t>STL4</t>
+  </si>
+  <si>
+    <t>STL4 - Edwardsville, IL</t>
+  </si>
+  <si>
+    <t>STL6</t>
+  </si>
+  <si>
+    <t>STL6 - Edwardsville, IL</t>
+  </si>
+  <si>
+    <t>XEW2</t>
+  </si>
+  <si>
+    <t>XEW2 - UNION CITY, GA</t>
+  </si>
+  <si>
+    <t>XIX4</t>
+  </si>
+  <si>
+    <t>XIX4 - MEMPHIS, TN</t>
+  </si>
+  <si>
+    <t>XIX5</t>
+  </si>
+  <si>
+    <t>XIX5 - KENOSHA, WI</t>
+  </si>
+  <si>
+    <t>XUSH</t>
+  </si>
+  <si>
+    <t>XUSH - Phoenix, AZ</t>
+  </si>
+  <si>
+    <t>XUSN</t>
+  </si>
+  <si>
+    <t>XUSN - Aurora, IL</t>
+  </si>
+  <si>
+    <t>XUSU</t>
+  </si>
+  <si>
+    <t>XUSU - Rock Hill, SC</t>
+  </si>
+  <si>
+    <t>ABE4</t>
+  </si>
+  <si>
+    <t>ABE4 - Easton, PA</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>ACY2</t>
+  </si>
+  <si>
+    <t>ACY2 - BURLINGTON, NJ</t>
+  </si>
+  <si>
+    <t>ALB1</t>
+  </si>
+  <si>
+    <t>ALB1 - Castleton, NY</t>
+  </si>
+  <si>
+    <t>AVP3</t>
+  </si>
+  <si>
+    <t>AVP3 - GOULDSBORO, PA</t>
+  </si>
+  <si>
+    <t>AVP9</t>
+  </si>
+  <si>
+    <t>AVP9 - JESSUP, PA</t>
+  </si>
+  <si>
+    <t>BDL6</t>
+  </si>
+  <si>
+    <t>BDL6 - CROMWELL, CT</t>
+  </si>
+  <si>
+    <t>BNA2</t>
+  </si>
+  <si>
+    <t>BNA2 - Lebanon, TN</t>
+  </si>
+  <si>
+    <t>BOS7</t>
+  </si>
+  <si>
+    <t>BOS7 - Fall River, MA</t>
+  </si>
+  <si>
+    <t>BWI4</t>
+  </si>
+  <si>
+    <t>BWI4 - Clear Brook, VA</t>
+  </si>
+  <si>
+    <t>CLT2</t>
+  </si>
+  <si>
+    <t>CLT2 - Charlotte, NC</t>
+  </si>
+  <si>
+    <t>CLT3</t>
+  </si>
+  <si>
+    <t>CLT3 - Concord, NC</t>
+  </si>
+  <si>
+    <t>CMH2</t>
+  </si>
+  <si>
+    <t>CMH2 - Groveport, OH</t>
+  </si>
+  <si>
+    <t>CMH3</t>
+  </si>
+  <si>
+    <t>CMH3 - Monroe, OH</t>
+  </si>
+  <si>
+    <t>CMH6</t>
+  </si>
+  <si>
+    <t>CMH6 - LOCKBOURNE, OH</t>
+  </si>
+  <si>
+    <t>CVG3</t>
+  </si>
+  <si>
+    <t>CVG3 - Hebron, KY</t>
+  </si>
+  <si>
+    <t>DCA6</t>
+  </si>
+  <si>
+    <t>DCA6 - BALTIMORE, MD</t>
+  </si>
+  <si>
+    <t>DET1</t>
+  </si>
+  <si>
+    <t>DET1 - Livonia, MI</t>
+  </si>
+  <si>
+    <t>DET2</t>
+  </si>
+  <si>
+    <t>DET2 - Shelby Township, MI</t>
+  </si>
+  <si>
+    <t>FAT2</t>
+  </si>
+  <si>
+    <t>FAT2 - VISALIA, CA</t>
+  </si>
+  <si>
+    <t>GSO1</t>
+  </si>
+  <si>
+    <t>GSO1 - KERNERSVILLE, NC</t>
+  </si>
+  <si>
+    <t>HGR2</t>
+  </si>
+  <si>
+    <t>HGR2 - HAGERSTOWN, MD</t>
+  </si>
+  <si>
+    <t>ILG1</t>
+  </si>
+  <si>
+    <t>ILG1 - NEW CASTLE, DE</t>
+  </si>
+  <si>
+    <t>IND2</t>
+  </si>
+  <si>
+    <t>IND2 - Plainfield, IN</t>
+  </si>
+  <si>
+    <t>IND5</t>
+  </si>
+  <si>
+    <t>IND5 - Plainfield, IN</t>
+  </si>
+  <si>
+    <t>IND9</t>
+  </si>
+  <si>
+    <t>IND9 - GREENWOOD, IN</t>
+  </si>
+  <si>
+    <t>IUSA</t>
+  </si>
+  <si>
+    <t>IUSA - Compton, CA</t>
+  </si>
+  <si>
+    <t>IUSA - Carson, CA</t>
+  </si>
+  <si>
+    <t>JAX3</t>
+  </si>
+  <si>
+    <t>JAX3 - Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>LGB4</t>
+  </si>
+  <si>
+    <t>LGB4 - Redlands, CA</t>
+  </si>
+  <si>
+    <t>LGB6</t>
+  </si>
+  <si>
+    <t>LGB6 - Riverside, CA</t>
+  </si>
+  <si>
+    <t>MCO2</t>
+  </si>
+  <si>
+    <t>MCO2 - Deltona, FL</t>
+  </si>
+  <si>
+    <t>MDT1</t>
+  </si>
+  <si>
+    <t>MDT1 - Carlisle, PA</t>
+  </si>
+  <si>
+    <t>MQJ2</t>
+  </si>
+  <si>
+    <t>MQJ2 - WHITELAND, IN</t>
+  </si>
+  <si>
+    <t>OAK3</t>
+  </si>
+  <si>
+    <t>OAK3 - Patterson, CA</t>
+  </si>
+  <si>
+    <t>ONT9</t>
+  </si>
+  <si>
+    <t>ONT9 - Redlands, CA</t>
+  </si>
+  <si>
+    <t>PHL4</t>
+  </si>
+  <si>
+    <t>PHL4 - Carlise, PA</t>
+  </si>
+  <si>
+    <t>PHL4 - Carlisle, PA</t>
+  </si>
+  <si>
+    <t>PHL5</t>
+  </si>
+  <si>
+    <t>PHL5 - Lewisberry, PA</t>
+  </si>
+  <si>
+    <t>PHL6</t>
+  </si>
+  <si>
+    <t>PHL6 - Carlisle, PA</t>
+  </si>
+  <si>
+    <t>PHX5</t>
+  </si>
+  <si>
+    <t>PHX5 - Goodyear, AZ</t>
+  </si>
+  <si>
+    <t>PHX7</t>
+  </si>
+  <si>
+    <t>PHX7 - Phoenix, AZ</t>
+  </si>
+  <si>
+    <t>PIT2</t>
+  </si>
+  <si>
+    <t>PIT2 - IMPERIAL, PA</t>
+  </si>
+  <si>
+    <t>RIC1</t>
+  </si>
+  <si>
+    <t>RIC1 - Petersburg, VA</t>
+  </si>
+  <si>
+    <t>RIC3</t>
+  </si>
+  <si>
+    <t>RIC3 - RICHMOND, VA</t>
+  </si>
+  <si>
+    <t>SBD2</t>
+  </si>
+  <si>
+    <t>SBD2 - SAN BERNARDINO, CA</t>
+  </si>
+  <si>
+    <t>SCK1</t>
+  </si>
+  <si>
+    <t>SCK1 - STOCKTON, CA</t>
+  </si>
+  <si>
+    <t>SCK3</t>
+  </si>
+  <si>
+    <t>SCK3 - MANTECA, CA</t>
+  </si>
+  <si>
+    <t>SJC7</t>
+  </si>
+  <si>
+    <t>SJC7 - Tracy, CA</t>
+  </si>
+  <si>
+    <t>SLC2</t>
+  </si>
+  <si>
+    <t>SLC2 - West Jordan, UT</t>
+  </si>
+  <si>
+    <t>SLC3</t>
+  </si>
+  <si>
+    <t>SLC3 - SALT LAKE CITY, UT</t>
+  </si>
+  <si>
+    <t>SMF6</t>
+  </si>
+  <si>
+    <t>SMF6 - SACRAMENTO, CA</t>
+  </si>
+  <si>
+    <t>SNA4</t>
+  </si>
+  <si>
+    <t>SNA4 - Rialto, CA</t>
+  </si>
+  <si>
+    <t>SWF1</t>
+  </si>
+  <si>
+    <t>SWF1 - ROCK TAVERN, NY</t>
+  </si>
+  <si>
+    <t>TEB3</t>
+  </si>
+  <si>
+    <t>TEB3 - Logan Township, NJ</t>
+  </si>
+  <si>
+    <t>TEB4</t>
+  </si>
+  <si>
+    <t>TEB4 - PENNS GROVE, NJ</t>
+  </si>
+  <si>
+    <t>TEB6</t>
+  </si>
+  <si>
+    <t>TEB6 - Cranbury, NJ</t>
+  </si>
+  <si>
+    <t>TPA2</t>
+  </si>
+  <si>
+    <t>TPA2 - Lakeland, FL</t>
+  </si>
+  <si>
+    <t>TPA3</t>
+  </si>
+  <si>
+    <t>TPA3 - Auburndale, FL</t>
+  </si>
+  <si>
+    <t>TPA6</t>
+  </si>
+  <si>
+    <t>TPA6 - OCALA, FL</t>
+  </si>
+  <si>
+    <t>TTN2</t>
+  </si>
+  <si>
+    <t>TTN2 - CRANBURY, NJ</t>
+  </si>
+  <si>
+    <t>XIX1</t>
+  </si>
+  <si>
+    <t>XIX1 - Robbinsville, NJ</t>
+  </si>
+  <si>
+    <t>XIX2</t>
+  </si>
+  <si>
+    <t>XIX2 - San Bernardino, CA</t>
+  </si>
+  <si>
+    <t>XIX7</t>
+  </si>
+  <si>
+    <t>XIX7 - SAN BERNARDINO, CA</t>
+  </si>
+  <si>
+    <t>XUSD</t>
+  </si>
+  <si>
+    <t>XUSD - Stockton, CA</t>
+  </si>
+  <si>
+    <t>XUSF</t>
+  </si>
+  <si>
+    <t>XUSF - Orlando, FL</t>
+  </si>
+  <si>
+    <t>XUSO</t>
+  </si>
+  <si>
+    <t>XUSO - Perris, CA</t>
+  </si>
+  <si>
+    <t>XUSP</t>
+  </si>
+  <si>
+    <t>XUSP - Aberdeen, MD</t>
+  </si>
+  <si>
+    <t>XUSV</t>
+  </si>
+  <si>
+    <t>XUSV - Redlands, CA</t>
+  </si>
+  <si>
+    <t>BFI3</t>
+  </si>
+  <si>
+    <t>BFI3 - DuPont, WA</t>
+  </si>
+  <si>
+    <t>Tuseday</t>
+  </si>
+  <si>
+    <t>BFI7</t>
+  </si>
+  <si>
+    <t>BFI7 - Sumner, WA</t>
+  </si>
+  <si>
+    <t>GEG2</t>
+  </si>
+  <si>
+    <t>GEG2 - SPOKANE, WA</t>
+  </si>
+  <si>
+    <t>LAS1</t>
+  </si>
+  <si>
+    <t>LAS1 - HENDERSON, NV</t>
+  </si>
+  <si>
+    <t>LAS6</t>
+  </si>
+  <si>
+    <t>LAS6 - Las Vegas, NV</t>
+  </si>
+  <si>
+    <t>PDX6</t>
+  </si>
+  <si>
+    <t>PDX6 - Portland, OR</t>
+  </si>
+  <si>
+    <t>PDX7</t>
+  </si>
+  <si>
+    <t>PDX7 - Salem, OR</t>
+  </si>
+  <si>
+    <t>RNO4</t>
+  </si>
+  <si>
+    <t>RNO4 - Reno, NV</t>
+  </si>
+  <si>
+    <t>Warehouse Code</t>
+  </si>
+  <si>
+    <t>Full Location</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>ABE8</t>
+  </si>
+  <si>
+    <t>ABE8 - Florence, NJ</t>
+  </si>
+  <si>
+    <t>AKR1</t>
+  </si>
+  <si>
+    <t>AKR1 - CANTON, OH</t>
+  </si>
+  <si>
+    <t>AMA1</t>
+  </si>
+  <si>
+    <t>AMA1 - AMARILLO, TX</t>
+  </si>
+  <si>
+    <t>AZA4</t>
+  </si>
+  <si>
+    <t>AZA4 - PHOENIX, AZ</t>
+  </si>
+  <si>
+    <t>BNA6</t>
+  </si>
+  <si>
+    <t>BNA6 - CLARKSVILLE, TN</t>
+  </si>
+  <si>
+    <t>CHO1</t>
+  </si>
+  <si>
+    <t>CHO1 - FISHERSVILLE, VA</t>
+  </si>
+  <si>
+    <t>CLT6</t>
+  </si>
+  <si>
+    <t>CLT6 - PINEVILLE, NC</t>
+  </si>
+  <si>
+    <t>DEN7</t>
+  </si>
+  <si>
+    <t>DEN7 - AURORA, CO</t>
+  </si>
+  <si>
+    <t>DEN8</t>
+  </si>
+  <si>
+    <t>DEN8 - AURORA, CO</t>
+  </si>
+  <si>
+    <t>DTW3</t>
+  </si>
+  <si>
+    <t>DTW3 - ROMULUS, MI</t>
+  </si>
+  <si>
+    <t>FAR1</t>
+  </si>
+  <si>
+    <t>FAR1 - FARGO, ND</t>
+  </si>
+  <si>
+    <t>FWA4</t>
+  </si>
+  <si>
+    <t>FWA4 - FORT WAYNE, IN</t>
+  </si>
+  <si>
+    <t>GYR2</t>
+  </si>
+  <si>
+    <t>GYR2 - GOODYEAR, AZ</t>
+  </si>
+  <si>
+    <t>GYR3</t>
+  </si>
+  <si>
+    <t>GYR3 - PHOENIX, AZ</t>
+  </si>
+  <si>
+    <t>HEA2</t>
+  </si>
+  <si>
+    <t>HEA2 - BREINIGSVILLE, PA</t>
+  </si>
+  <si>
+    <t>HIA1</t>
+  </si>
+  <si>
+    <t>HIA1 - MIDDLETOWN, PA</t>
+  </si>
+  <si>
+    <t>HOU7</t>
+  </si>
+  <si>
+    <t>HOU7 - HOUSTON, TX</t>
+  </si>
+  <si>
+    <t>IAH3</t>
+  </si>
+  <si>
+    <t>IAH3 - HOUSTON, TX</t>
+  </si>
+  <si>
+    <t>IUSE</t>
+  </si>
+  <si>
+    <t>IUSE - Savannah, GA</t>
+  </si>
+  <si>
+    <t>LGB8</t>
+  </si>
+  <si>
+    <t>LGB8 - Rialto, CA</t>
+  </si>
+  <si>
+    <t>LGB9</t>
+  </si>
+  <si>
+    <t>LGB9 - PERRIS, CA</t>
+  </si>
+  <si>
+    <t>MCE1</t>
+  </si>
+  <si>
+    <t>MCE1 - TURLOCK, CA</t>
+  </si>
+  <si>
+    <t>MCI3</t>
+  </si>
+  <si>
+    <t>MCI3 - LIBERTY, MO</t>
+  </si>
+  <si>
+    <t>MDT4</t>
+  </si>
+  <si>
+    <t>MDT4 - YORK, PA</t>
+  </si>
+  <si>
+    <t>MEM8</t>
+  </si>
+  <si>
+    <t>MEM8 - BYHALIA, MS</t>
+  </si>
+  <si>
+    <t>MQJ1</t>
+  </si>
+  <si>
+    <t>MQJ1 - GREENFIELD, IN</t>
+  </si>
+  <si>
+    <t>MSP6</t>
+  </si>
+  <si>
+    <t>MSP6 - LAKEVILLE, MN</t>
+  </si>
+  <si>
+    <t>OLM1</t>
+  </si>
+  <si>
+    <t>OLM1 - OLYMPIA, WA</t>
+  </si>
+  <si>
+    <t>ONT8</t>
+  </si>
+  <si>
+    <t>ONT8 - Moreno Valley, CA</t>
+  </si>
+  <si>
+    <t>PBI2</t>
+  </si>
+  <si>
+    <t>PBI2 - JUPITER, FL</t>
+  </si>
+  <si>
+    <t>PBI3</t>
+  </si>
+  <si>
+    <t>PBI3 - PORT SAINT LUCIE, FL</t>
+  </si>
+  <si>
+    <t>RDU4</t>
+  </si>
+  <si>
+    <t>RDU4 - FAYETTEVILLE, NC</t>
+  </si>
+  <si>
+    <t>RYY2</t>
+  </si>
+  <si>
+    <t>RYY2 - White, GA</t>
+  </si>
+  <si>
+    <t>SAT6</t>
+  </si>
+  <si>
+    <t>SAT6 - SAN MARCOS, TX</t>
+  </si>
+  <si>
+    <t>SMF7</t>
+  </si>
+  <si>
+    <t>SMF7 - VACAVILLE, CA</t>
+  </si>
+  <si>
+    <t>WBW2</t>
+  </si>
+  <si>
+    <t>WBW2 - PA</t>
+  </si>
+  <si>
+    <t>HGR6</t>
+  </si>
+  <si>
+    <t>HGR6 - HAGERSTOWN, MD</t>
+  </si>
+  <si>
+    <t>LBE1</t>
+  </si>
+  <si>
+    <t>LBE1 - NEW STANTON, PA</t>
+  </si>
+  <si>
+    <t>LAN2</t>
+  </si>
+  <si>
+    <t>ABS4</t>
+  </si>
+  <si>
     <t>DEN2</t>
   </si>
   <si>
-    <t>DEN2 - Aurora, CO</t>
-  </si>
-  <si>
-    <t>FOE1</t>
-  </si>
-  <si>
-    <t>FOE1 - KANSAS CITY, KS</t>
-  </si>
-  <si>
-    <t>GSP1</t>
-  </si>
-  <si>
-    <t>GSP1 - Spartanburg, SC</t>
-  </si>
-  <si>
-    <t>HSV1</t>
-  </si>
-  <si>
-    <t>HSV1 - MADISON, AL</t>
-  </si>
-  <si>
-    <t>ICT2</t>
-  </si>
-  <si>
-    <t>ICT2 - PARK CITY, KS</t>
-  </si>
-  <si>
-    <t>IGQ2</t>
-  </si>
-  <si>
-    <t>IGQ2 - University Park, IL</t>
-  </si>
-  <si>
-    <t>JVL1</t>
-  </si>
-  <si>
-    <t>JVL1 - BELOIT, WI</t>
-  </si>
-  <si>
-    <t>LFT1</t>
-  </si>
-  <si>
-    <t>LFT1 - CARENCRO, LA</t>
-  </si>
-  <si>
-    <t>MDW2</t>
-  </si>
-  <si>
-    <t>MDW2 - Joliet, IL</t>
-  </si>
-  <si>
-    <t>MDW6</t>
-  </si>
-  <si>
-    <t>MDW6 - ROMEOVILLE, IL</t>
-  </si>
-  <si>
-    <t>MDW8</t>
-  </si>
-  <si>
-    <t>MDW8 - Waukegan, IL</t>
-  </si>
-  <si>
-    <t>MDW9</t>
-  </si>
-  <si>
-    <t>MDW9 - Aurora, IL</t>
-  </si>
-  <si>
-    <t>MEM1</t>
-  </si>
-  <si>
-    <t>MEM1 - Memphis, TN</t>
-  </si>
-  <si>
-    <t>MEM2</t>
-  </si>
-  <si>
-    <t>MEM2 - BYHALIA, MS</t>
-  </si>
-  <si>
-    <t>MEM6</t>
-  </si>
-  <si>
-    <t>MEM6 - OLIVE BRANCH, MS</t>
-  </si>
-  <si>
-    <t>MGE3</t>
-  </si>
-  <si>
-    <t>MGE3 - Jefferson, GA</t>
-  </si>
-  <si>
-    <t>MKC4</t>
-  </si>
-  <si>
-    <t>MKC4 - Edgerton , KS</t>
-  </si>
-  <si>
-    <t>ORD2</t>
-  </si>
-  <si>
-    <t>ORD2 - CHANNAHON, IL</t>
-  </si>
-  <si>
-    <t>PIL1</t>
-  </si>
-  <si>
-    <t>PIL1 - HORN LAKE, MS</t>
-  </si>
-  <si>
-    <t>SAT4</t>
-  </si>
-  <si>
-    <t>SAT4 - SAN ANTONIO, TX</t>
-  </si>
-  <si>
-    <t>SAV3</t>
-  </si>
-  <si>
-    <t>SAV3 - Macon, GA</t>
-  </si>
-  <si>
-    <t>STL3</t>
-  </si>
-  <si>
-    <t>STL3 - REPUBLIC, MO</t>
-  </si>
-  <si>
-    <t>STL4</t>
-  </si>
-  <si>
-    <t>STL4 - Edwardsville, IL</t>
-  </si>
-  <si>
-    <t>STL6</t>
-  </si>
-  <si>
-    <t>STL6 - Edwardsville, IL</t>
-  </si>
-  <si>
-    <t>XEW2</t>
-  </si>
-  <si>
-    <t>XEW2 - UNION CITY, GA</t>
-  </si>
-  <si>
-    <t>XIX4</t>
-  </si>
-  <si>
-    <t>XIX4 - MEMPHIS, TN</t>
-  </si>
-  <si>
-    <t>XIX5</t>
-  </si>
-  <si>
-    <t>XIX5 - KENOSHA, WI</t>
-  </si>
-  <si>
-    <t>XUSH</t>
-  </si>
-  <si>
-    <t>XUSH - Phoenix, AZ</t>
-  </si>
-  <si>
-    <t>XUSN</t>
-  </si>
-  <si>
-    <t>XUSN - Aurora, IL</t>
-  </si>
-  <si>
-    <t>XUSU</t>
-  </si>
-  <si>
-    <t>XUSU - Rock Hill, SC</t>
-  </si>
-  <si>
-    <t>ABE4</t>
-  </si>
-  <si>
-    <t>ABE4 - Easton, PA</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>ACY2</t>
-  </si>
-  <si>
-    <t>ACY2 - BURLINGTON, NJ</t>
-  </si>
-  <si>
-    <t>ALB1</t>
-  </si>
-  <si>
-    <t>ALB1 - Castleton, NY</t>
-  </si>
-  <si>
-    <t>AVP3</t>
-  </si>
-  <si>
-    <t>AVP3 - GOULDSBORO, PA</t>
-  </si>
-  <si>
-    <t>AVP9</t>
-  </si>
-  <si>
-    <t>AVP9 - JESSUP, PA</t>
-  </si>
-  <si>
-    <t>BDL6</t>
-  </si>
-  <si>
-    <t>BDL6 - CROMWELL, CT</t>
-  </si>
-  <si>
-    <t>BNA2</t>
-  </si>
-  <si>
-    <t>BNA2 - Lebanon, TN</t>
-  </si>
-  <si>
-    <t>BOS7</t>
-  </si>
-  <si>
-    <t>BOS7 - Fall River, MA</t>
-  </si>
-  <si>
-    <t>BWI4</t>
-  </si>
-  <si>
-    <t>BWI4 - Clear Brook, VA</t>
-  </si>
-  <si>
-    <t>CLT2</t>
-  </si>
-  <si>
-    <t>CLT2 - Charlotte, NC</t>
-  </si>
-  <si>
-    <t>CLT3</t>
-  </si>
-  <si>
-    <t>CLT3 - Concord, NC</t>
-  </si>
-  <si>
-    <t>CMH2</t>
-  </si>
-  <si>
-    <t>CMH2 - Groveport, OH</t>
-  </si>
-  <si>
-    <t>CMH3</t>
-  </si>
-  <si>
-    <t>CMH3 - Monroe, OH</t>
-  </si>
-  <si>
-    <t>CMH6</t>
-  </si>
-  <si>
-    <t>CMH6 - LOCKBOURNE, OH</t>
-  </si>
-  <si>
-    <t>CVG3</t>
-  </si>
-  <si>
-    <t>CVG3 - Hebron, KY</t>
-  </si>
-  <si>
-    <t>DCA6</t>
-  </si>
-  <si>
-    <t>DCA6 - BALTIMORE, MD</t>
-  </si>
-  <si>
-    <t>DET1</t>
-  </si>
-  <si>
-    <t>DET1 - Livonia, MI</t>
-  </si>
-  <si>
-    <t>DET2</t>
-  </si>
-  <si>
-    <t>DET2 - Shelby Township, MI</t>
-  </si>
-  <si>
-    <t>FAT2</t>
-  </si>
-  <si>
-    <t>FAT2 - VISALIA, CA</t>
-  </si>
-  <si>
-    <t>GSO1</t>
-  </si>
-  <si>
-    <t>GSO1 - KERNERSVILLE, NC</t>
-  </si>
-  <si>
-    <t>HGR2</t>
-  </si>
-  <si>
-    <t>HGR2 - HAGERSTOWN, MD</t>
-  </si>
-  <si>
-    <t>ILG1</t>
-  </si>
-  <si>
-    <t>ILG1 - NEW CASTLE, DE</t>
-  </si>
-  <si>
-    <t>IND2</t>
-  </si>
-  <si>
-    <t>IND2 - Plainfield, IN</t>
-  </si>
-  <si>
-    <t>IND5</t>
-  </si>
-  <si>
-    <t>IND5 - Plainfield, IN</t>
-  </si>
-  <si>
-    <t>IND9</t>
-  </si>
-  <si>
-    <t>IND9 - GREENWOOD, IN</t>
-  </si>
-  <si>
-    <t>IUSA</t>
-  </si>
-  <si>
-    <t>IUSA - Compton, CA</t>
-  </si>
-  <si>
-    <t>IUSA - Carson, CA</t>
-  </si>
-  <si>
-    <t>JAX3</t>
-  </si>
-  <si>
-    <t>JAX3 - Jacksonville, FL</t>
-  </si>
-  <si>
-    <t>LGB4</t>
-  </si>
-  <si>
-    <t>LGB4 - Redlands, CA</t>
-  </si>
-  <si>
-    <t>LGB6</t>
-  </si>
-  <si>
-    <t>LGB6 - Riverside, CA</t>
-  </si>
-  <si>
-    <t>MCO2</t>
-  </si>
-  <si>
-    <t>MCO2 - Deltona, FL</t>
-  </si>
-  <si>
-    <t>MDT1</t>
-  </si>
-  <si>
-    <t>MDT1 - Carlisle, PA</t>
-  </si>
-  <si>
-    <t>MQJ2</t>
-  </si>
-  <si>
-    <t>MQJ2 - WHITELAND, IN</t>
-  </si>
-  <si>
-    <t>OAK3</t>
-  </si>
-  <si>
-    <t>OAK3 - Patterson, CA</t>
-  </si>
-  <si>
-    <t>ONT9</t>
-  </si>
-  <si>
-    <t>ONT9 - Redlands, CA</t>
-  </si>
-  <si>
-    <t>PHL4</t>
-  </si>
-  <si>
-    <t>PHL4 - Carlise, PA</t>
-  </si>
-  <si>
-    <t>PHL4 - Carlisle, PA</t>
-  </si>
-  <si>
-    <t>PHL5</t>
-  </si>
-  <si>
-    <t>PHL5 - Lewisberry, PA</t>
-  </si>
-  <si>
-    <t>PHL6</t>
-  </si>
-  <si>
-    <t>PHL6 - Carlisle, PA</t>
-  </si>
-  <si>
-    <t>PHX5</t>
-  </si>
-  <si>
-    <t>PHX5 - Goodyear, AZ</t>
-  </si>
-  <si>
-    <t>PHX7</t>
-  </si>
-  <si>
-    <t>PHX7 - Phoenix, AZ</t>
-  </si>
-  <si>
-    <t>PIT2</t>
-  </si>
-  <si>
-    <t>PIT2 - IMPERIAL, PA</t>
-  </si>
-  <si>
-    <t>RIC1</t>
-  </si>
-  <si>
-    <t>RIC1 - Petersburg, VA</t>
-  </si>
-  <si>
-    <t>RIC3</t>
-  </si>
-  <si>
-    <t>RIC3 - RICHMOND, VA</t>
-  </si>
-  <si>
-    <t>SBD2</t>
-  </si>
-  <si>
-    <t>SBD2 - SAN BERNARDINO, CA</t>
-  </si>
-  <si>
-    <t>SCK1</t>
-  </si>
-  <si>
-    <t>SCK1 - STOCKTON, CA</t>
-  </si>
-  <si>
-    <t>SCK3</t>
-  </si>
-  <si>
-    <t>SCK3 - MANTECA, CA</t>
-  </si>
-  <si>
-    <t>SJC7</t>
-  </si>
-  <si>
-    <t>SJC7 - Tracy, CA</t>
-  </si>
-  <si>
-    <t>SLC2</t>
-  </si>
-  <si>
-    <t>SLC2 - West Jordan, UT</t>
-  </si>
-  <si>
-    <t>SLC3</t>
-  </si>
-  <si>
-    <t>SLC3 - SALT LAKE CITY, UT</t>
-  </si>
-  <si>
-    <t>SMF6</t>
-  </si>
-  <si>
-    <t>SMF6 - SACRAMENTO, CA</t>
-  </si>
-  <si>
-    <t>SNA4</t>
-  </si>
-  <si>
-    <t>SNA4 - Rialto, CA</t>
-  </si>
-  <si>
-    <t>SWF1</t>
-  </si>
-  <si>
-    <t>SWF1 - ROCK TAVERN, NY</t>
-  </si>
-  <si>
-    <t>TEB3</t>
-  </si>
-  <si>
-    <t>TEB3 - Logan Township, NJ</t>
-  </si>
-  <si>
-    <t>TEB4</t>
-  </si>
-  <si>
-    <t>TEB4 - PENNS GROVE, NJ</t>
-  </si>
-  <si>
-    <t>TEB6</t>
-  </si>
-  <si>
-    <t>TEB6 - Cranbury, NJ</t>
-  </si>
-  <si>
-    <t>TPA2</t>
-  </si>
-  <si>
-    <t>TPA2 - Lakeland, FL</t>
-  </si>
-  <si>
-    <t>TPA3</t>
-  </si>
-  <si>
-    <t>TPA3 - Auburndale, FL</t>
-  </si>
-  <si>
-    <t>TPA6</t>
-  </si>
-  <si>
-    <t>TPA6 - OCALA, FL</t>
-  </si>
-  <si>
-    <t>TTN2</t>
-  </si>
-  <si>
-    <t>TTN2 - CRANBURY, NJ</t>
-  </si>
-  <si>
-    <t>XIX1</t>
-  </si>
-  <si>
-    <t>XIX1 - Robbinsville, NJ</t>
-  </si>
-  <si>
-    <t>XIX2</t>
-  </si>
-  <si>
-    <t>XIX2 - San Bernardino, CA</t>
-  </si>
-  <si>
-    <t>XIX7</t>
-  </si>
-  <si>
-    <t>XIX7 - SAN BERNARDINO, CA</t>
-  </si>
-  <si>
-    <t>XUSD</t>
-  </si>
-  <si>
-    <t>XUSD - Stockton, CA</t>
-  </si>
-  <si>
-    <t>XUSF</t>
-  </si>
-  <si>
-    <t>XUSF - Orlando, FL</t>
-  </si>
-  <si>
-    <t>XUSO</t>
-  </si>
-  <si>
-    <t>XUSO - Perris, CA</t>
-  </si>
-  <si>
-    <t>XUSP</t>
-  </si>
-  <si>
-    <t>XUSP - Aberdeen, MD</t>
-  </si>
-  <si>
-    <t>XUSV</t>
-  </si>
-  <si>
-    <t>XUSV - Redlands, CA</t>
-  </si>
-  <si>
-    <t>BFI3</t>
-  </si>
-  <si>
-    <t>BFI3 - DuPont, WA</t>
-  </si>
-  <si>
-    <t>Tuseday</t>
-  </si>
-  <si>
-    <t>BFI7</t>
-  </si>
-  <si>
-    <t>BFI7 - Sumner, WA</t>
-  </si>
-  <si>
-    <t>GEG2</t>
-  </si>
-  <si>
-    <t>GEG2 - SPOKANE, WA</t>
-  </si>
-  <si>
-    <t>LAS1</t>
-  </si>
-  <si>
-    <t>LAS1 - HENDERSON, NV</t>
-  </si>
-  <si>
-    <t>LAS6</t>
-  </si>
-  <si>
-    <t>LAS6 - Las Vegas, NV</t>
-  </si>
-  <si>
-    <t>PDX6</t>
-  </si>
-  <si>
-    <t>PDX6 - Portland, OR</t>
-  </si>
-  <si>
-    <t>PDX7</t>
-  </si>
-  <si>
-    <t>PDX7 - Salem, OR</t>
-  </si>
-  <si>
-    <t>RNO4</t>
-  </si>
-  <si>
-    <t>RNO4 - Reno, NV</t>
-  </si>
-  <si>
-    <t>Warehouse Code</t>
-  </si>
-  <si>
-    <t>Full Location</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>ABE8</t>
-  </si>
-  <si>
-    <t>ABE8 - Florence, NJ</t>
-  </si>
-  <si>
-    <t>AKR1</t>
-  </si>
-  <si>
-    <t>AKR1 - CANTON, OH</t>
-  </si>
-  <si>
-    <t>AMA1</t>
-  </si>
-  <si>
-    <t>AMA1 - AMARILLO, TX</t>
-  </si>
-  <si>
-    <t>AZA4</t>
-  </si>
-  <si>
-    <t>AZA4 - PHOENIX, AZ</t>
-  </si>
-  <si>
-    <t>BNA6</t>
-  </si>
-  <si>
-    <t>BNA6 - CLARKSVILLE, TN</t>
-  </si>
-  <si>
-    <t>CHO1</t>
-  </si>
-  <si>
-    <t>CHO1 - FISHERSVILLE, VA</t>
-  </si>
-  <si>
-    <t>CLT6</t>
-  </si>
-  <si>
-    <t>CLT6 - PINEVILLE, NC</t>
-  </si>
-  <si>
-    <t>DEN7</t>
-  </si>
-  <si>
-    <t>DEN7 - AURORA, CO</t>
-  </si>
-  <si>
-    <t>DEN8</t>
-  </si>
-  <si>
-    <t>DEN8 - AURORA, CO</t>
-  </si>
-  <si>
-    <t>DTW3</t>
-  </si>
-  <si>
-    <t>DTW3 - ROMULUS, MI</t>
-  </si>
-  <si>
-    <t>FAR1</t>
-  </si>
-  <si>
-    <t>FAR1 - FARGO, ND</t>
-  </si>
-  <si>
-    <t>FWA4</t>
-  </si>
-  <si>
-    <t>FWA4 - FORT WAYNE, IN</t>
-  </si>
-  <si>
-    <t>GYR2</t>
-  </si>
-  <si>
-    <t>GYR2 - GOODYEAR, AZ</t>
-  </si>
-  <si>
-    <t>GYR3</t>
-  </si>
-  <si>
-    <t>GYR3 - PHOENIX, AZ</t>
-  </si>
-  <si>
-    <t>HEA2</t>
-  </si>
-  <si>
-    <t>HEA2 - BREINIGSVILLE, PA</t>
-  </si>
-  <si>
-    <t>HIA1</t>
-  </si>
-  <si>
-    <t>HIA1 - MIDDLETOWN, PA</t>
-  </si>
-  <si>
-    <t>HOU7</t>
-  </si>
-  <si>
-    <t>HOU7 - HOUSTON, TX</t>
-  </si>
-  <si>
-    <t>IAH3</t>
-  </si>
-  <si>
-    <t>IAH3 - HOUSTON, TX</t>
-  </si>
-  <si>
-    <t>IUSE</t>
-  </si>
-  <si>
-    <t>IUSE - Savannah, GA</t>
-  </si>
-  <si>
-    <t>LGB8</t>
-  </si>
-  <si>
-    <t>LGB8 - Rialto, CA</t>
-  </si>
-  <si>
-    <t>LGB9</t>
-  </si>
-  <si>
-    <t>LGB9 - PERRIS, CA</t>
-  </si>
-  <si>
-    <t>MCE1</t>
-  </si>
-  <si>
-    <t>MCE1 - TURLOCK, CA</t>
-  </si>
-  <si>
-    <t>MCI3</t>
-  </si>
-  <si>
-    <t>MCI3 - LIBERTY, MO</t>
-  </si>
-  <si>
-    <t>MDT4</t>
-  </si>
-  <si>
-    <t>MDT4 - YORK, PA</t>
-  </si>
-  <si>
-    <t>MEM8</t>
-  </si>
-  <si>
-    <t>MEM8 - BYHALIA, MS</t>
-  </si>
-  <si>
-    <t>MQJ1</t>
-  </si>
-  <si>
-    <t>MQJ1 - GREENFIELD, IN</t>
-  </si>
-  <si>
-    <t>MSP6</t>
-  </si>
-  <si>
-    <t>MSP6 - LAKEVILLE, MN</t>
-  </si>
-  <si>
-    <t>OLM1</t>
-  </si>
-  <si>
-    <t>OLM1 - OLYMPIA, WA</t>
-  </si>
-  <si>
-    <t>ONT8</t>
-  </si>
-  <si>
-    <t>ONT8 - Moreno Valley, CA</t>
-  </si>
-  <si>
-    <t>PBI2</t>
-  </si>
-  <si>
-    <t>PBI2 - JUPITER, FL</t>
-  </si>
-  <si>
-    <t>PBI3</t>
-  </si>
-  <si>
-    <t>PBI3 - PORT SAINT LUCIE, FL</t>
-  </si>
-  <si>
-    <t>RDU4</t>
-  </si>
-  <si>
-    <t>RDU4 - FAYETTEVILLE, NC</t>
-  </si>
-  <si>
-    <t>RYY2</t>
-  </si>
-  <si>
-    <t>RYY2 - White, GA</t>
-  </si>
-  <si>
-    <t>SAT6</t>
-  </si>
-  <si>
-    <t>SAT6 - SAN MARCOS, TX</t>
-  </si>
-  <si>
-    <t>SMF7</t>
-  </si>
-  <si>
-    <t>SMF7 - VACAVILLE, CA</t>
-  </si>
-  <si>
-    <t>WBW2</t>
-  </si>
-  <si>
-    <t>WBW2 - PA</t>
-  </si>
-  <si>
-    <t>HGR6</t>
-  </si>
-  <si>
-    <t>HGR6 - HAGERSTOWN, MD</t>
-  </si>
-  <si>
-    <t>LBE1</t>
-  </si>
-  <si>
-    <t>LBE1 - NEW STANTON, PA</t>
-  </si>
-  <si>
-    <t>LAN2</t>
+    <t>TMB8</t>
   </si>
 </sst>
 </file>
@@ -1026,12 +1032,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1046,8 +1058,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,8 +1079,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}" name="Table1" displayName="Table1" ref="A1:H159" totalsRowShown="0">
-  <autoFilter ref="A1:H159" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}" name="Table1" displayName="Table1" ref="A1:H162" totalsRowShown="0">
+  <autoFilter ref="A1:H162" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H162">
+    <sortCondition ref="A1:A162"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4D54B485-E84A-4D0C-98D3-AF6F63F95805}" name="Warehouse Code"/>
     <tableColumn id="2" xr3:uid="{80D69406-44F9-449D-BA45-31BA08B8BC85}" name="Full Location"/>
@@ -1399,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4662F2-FD79-40A4-9787-FD9B0FF81454}">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,37 +1432,37 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" t="s">
         <v>240</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>241</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>242</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>243</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>244</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>245</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>246</v>
-      </c>
-      <c r="H1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
       <c r="C2">
         <v>3</v>
       </c>
@@ -1463,16 +1479,16 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s">
         <v>248</v>
       </c>
-      <c r="B3" t="s">
-        <v>249</v>
-      </c>
       <c r="C3">
         <v>3</v>
       </c>
@@ -1489,41 +1505,23 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
+        <v>324</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1541,15 +1539,15 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1567,93 +1565,93 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1671,93 +1669,93 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1775,41 +1773,41 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1827,15 +1825,15 @@
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1853,15 +1851,15 @@
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1879,67 +1877,67 @@
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1957,15 +1955,15 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1983,15 +1981,15 @@
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -2009,15 +2007,15 @@
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>260</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -2035,15 +2033,15 @@
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2061,15 +2059,15 @@
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -2087,15 +2085,15 @@
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -2113,15 +2111,15 @@
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -2139,41 +2137,41 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s">
-        <v>263</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -2196,36 +2194,36 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -2243,15 +2241,15 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -2269,67 +2267,67 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -2347,15 +2345,15 @@
         <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -2373,67 +2371,67 @@
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2456,10 +2454,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2482,10 +2480,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2508,114 +2506,114 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>271</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H45" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2638,36 +2636,36 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B49" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -2685,15 +2683,15 @@
         <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>275</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>276</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -2711,15 +2709,15 @@
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>320</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>321</v>
+        <v>129</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -2737,15 +2735,15 @@
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -2763,41 +2761,41 @@
         <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2820,10 +2818,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2846,88 +2844,88 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>281</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -2950,36 +2948,36 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -2997,15 +2995,15 @@
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -3023,15 +3021,15 @@
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -3049,15 +3047,15 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -3075,16 +3073,16 @@
         <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
         <v>139</v>
       </c>
-      <c r="B65" t="s">
-        <v>141</v>
-      </c>
       <c r="C65">
         <v>3</v>
       </c>
@@ -3101,197 +3099,179 @@
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>285</v>
+        <v>140</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>232</v>
-      </c>
-      <c r="B70" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>6</v>
-      </c>
-      <c r="E70">
-        <v>6</v>
-      </c>
-      <c r="F70">
-        <v>6</v>
-      </c>
-      <c r="G70">
-        <v>6</v>
-      </c>
-      <c r="H70" t="s">
-        <v>225</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="B72" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>321</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>322</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -3309,41 +3289,41 @@
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -3361,15 +3341,15 @@
         <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>288</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -3387,41 +3367,41 @@
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -3439,41 +3419,41 @@
         <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>292</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>290</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -3491,41 +3471,41 @@
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -3543,67 +3523,67 @@
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H83" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>294</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -3626,10 +3606,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -3652,10 +3632,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -3678,10 +3658,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -3704,10 +3684,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -3730,10 +3710,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>296</v>
+        <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>297</v>
+        <v>54</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -3756,10 +3736,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -3782,10 +3762,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -3808,88 +3788,88 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>298</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>299</v>
+        <v>58</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B95" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -3907,145 +3887,145 @@
         <v>5</v>
       </c>
       <c r="H96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>302</v>
+        <v>153</v>
       </c>
       <c r="B98" t="s">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H99" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>303</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H101" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>306</v>
+        <v>155</v>
       </c>
       <c r="B102" t="s">
-        <v>307</v>
+        <v>156</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -4063,145 +4043,127 @@
         <v>5</v>
       </c>
       <c r="H102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>308</v>
+        <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>309</v>
+        <v>62</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H103" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
       <c r="B104" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H104" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>236</v>
-      </c>
-      <c r="B105" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="C105">
-        <v>4</v>
-      </c>
-      <c r="D105">
-        <v>6</v>
-      </c>
-      <c r="E105">
-        <v>6</v>
-      </c>
-      <c r="F105">
-        <v>6</v>
-      </c>
-      <c r="G105">
-        <v>6</v>
-      </c>
-      <c r="H105" t="s">
-        <v>225</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H106" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H107" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -4219,15 +4181,15 @@
         <v>5</v>
       </c>
       <c r="H108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B109" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -4245,15 +4207,15 @@
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B110" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -4271,15 +4233,15 @@
         <v>5</v>
       </c>
       <c r="H110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -4297,41 +4259,41 @@
         <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="B112" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B113" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -4349,41 +4311,41 @@
         <v>5</v>
       </c>
       <c r="H113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>310</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B115" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -4401,15 +4363,15 @@
         <v>5</v>
       </c>
       <c r="H115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -4427,119 +4389,119 @@
         <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H117" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H118" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>311</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H119" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H120" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>314</v>
+        <v>65</v>
       </c>
       <c r="B121" t="s">
-        <v>315</v>
+        <v>66</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -4562,10 +4524,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>68</v>
+        <v>313</v>
       </c>
       <c r="B122" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -4588,36 +4550,36 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F123">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G123">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B124" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C124">
         <v>3</v>
@@ -4635,15 +4597,15 @@
         <v>5</v>
       </c>
       <c r="H124" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B125" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -4661,15 +4623,15 @@
         <v>5</v>
       </c>
       <c r="H125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C126">
         <v>3</v>
@@ -4687,15 +4649,15 @@
         <v>5</v>
       </c>
       <c r="H126" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B127" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -4713,15 +4675,15 @@
         <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -4739,15 +4701,15 @@
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -4765,15 +4727,15 @@
         <v>5</v>
       </c>
       <c r="H129" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="B130" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="C130">
         <v>3</v>
@@ -4791,15 +4753,15 @@
         <v>5</v>
       </c>
       <c r="H130" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="B131" t="s">
-        <v>190</v>
+        <v>316</v>
       </c>
       <c r="C131">
         <v>3</v>
@@ -4817,41 +4779,41 @@
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="B132" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B133" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -4874,10 +4836,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -4900,36 +4862,36 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="B135" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H135" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B136" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C136">
         <v>3</v>
@@ -4947,15 +4909,15 @@
         <v>5</v>
       </c>
       <c r="H136" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B137" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -4973,15 +4935,15 @@
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B138" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -4999,15 +4961,15 @@
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B139" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -5025,41 +4987,23 @@
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>201</v>
-      </c>
-      <c r="B140" t="s">
-        <v>202</v>
+        <v>326</v>
       </c>
       <c r="C140">
         <v>3</v>
-      </c>
-      <c r="D140">
-        <v>3</v>
-      </c>
-      <c r="E140">
-        <v>5</v>
-      </c>
-      <c r="F140">
-        <v>5</v>
-      </c>
-      <c r="G140">
-        <v>5</v>
-      </c>
-      <c r="H140" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B141" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C141">
         <v>3</v>
@@ -5077,15 +5021,15 @@
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B142" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -5103,41 +5047,41 @@
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="B143" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B144" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -5155,15 +5099,15 @@
         <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="B145" t="s">
-        <v>210</v>
+        <v>318</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -5179,225 +5123,222 @@
       </c>
       <c r="G145">
         <v>5</v>
-      </c>
-      <c r="H145" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B146" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H146" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="B147" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="B148" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G149">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H149" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="B150" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H150" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H151" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="B152" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H152" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B154" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -5415,41 +5356,41 @@
         <v>5</v>
       </c>
       <c r="H154" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="B155" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F155">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G155">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H155" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B156" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C156">
         <v>2</v>
@@ -5472,10 +5413,10 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B157" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C157">
         <v>3</v>
@@ -5493,15 +5434,15 @@
         <v>5</v>
       </c>
       <c r="H157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="B158" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="C158">
         <v>3</v>
@@ -5517,14 +5458,113 @@
       </c>
       <c r="G158">
         <v>5</v>
+      </c>
+      <c r="H158" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>324</v>
+        <v>85</v>
+      </c>
+      <c r="B159" t="s">
+        <v>86</v>
       </c>
       <c r="C159">
         <v>2</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+      <c r="G159">
+        <v>4</v>
+      </c>
+      <c r="H159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>220</v>
+      </c>
+      <c r="B160" t="s">
+        <v>221</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160">
+        <v>5</v>
+      </c>
+      <c r="H160" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C178" s="1">
+        <v>3</v>
+      </c>
+      <c r="D178" s="1">
+        <v>3</v>
+      </c>
+      <c r="E178" s="1">
+        <v>5</v>
+      </c>
+      <c r="F178" s="1">
+        <v>5</v>
+      </c>
+      <c r="G178" s="1">
+        <v>5</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C179" s="1">
+        <v>3</v>
+      </c>
+      <c r="D179" s="1">
+        <v>3</v>
+      </c>
+      <c r="E179" s="1">
+        <v>5</v>
+      </c>
+      <c r="F179" s="1">
+        <v>5</v>
+      </c>
+      <c r="G179" s="1">
+        <v>5</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Warehouse_Ship_Days.xlsx
+++ b/Warehouse_Ship_Days.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Projects\ASN_Sub_Automator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ad0f44da62cdc4c/Documents/ARN-Invoice_Submissions/ARN-Invoice_Submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F57BB6-0627-405A-9409-1032204A7D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{75F57BB6-0627-405A-9409-1032204A7D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC2B8D06-B0B1-4259-86F2-A6DEE4AC81C6}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="15800" xr2:uid="{6294DBFF-D57F-4B78-B461-50A917CE3F08}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6294DBFF-D57F-4B78-B461-50A917CE3F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="319">
   <si>
     <t>DFW6</t>
   </si>
@@ -990,6 +990,9 @@
   </si>
   <si>
     <t>ETA</t>
+  </si>
+  <si>
+    <t>PPO4</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1048,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}" name="Table1" displayName="Table1" ref="A1:C162" totalsRowShown="0">
-  <autoFilter ref="A1:C162" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}" name="Table1" displayName="Table1" ref="A1:C163" totalsRowShown="0">
+  <autoFilter ref="A1:C163" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
     <sortCondition ref="A1:A162"/>
   </sortState>
@@ -1376,17 +1379,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4662F2-FD79-40A4-9787-FD9B0FF81454}">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2537,21 +2540,21 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="B106" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -2559,13 +2562,13 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="B108" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2573,7 +2576,7 @@
         <v>154</v>
       </c>
       <c r="B109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -2581,10 +2584,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -2592,10 +2595,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B111" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -2603,10 +2606,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -2614,10 +2617,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B113" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -2625,32 +2628,32 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="B114" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B116" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -2658,10 +2661,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="B117" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -2669,43 +2672,43 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>301</v>
+        <v>169</v>
       </c>
       <c r="B119" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="B121" t="s">
-        <v>64</v>
+        <v>302</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -2713,21 +2716,21 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B123" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -2735,32 +2738,32 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>304</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C126">
         <v>3</v>
@@ -2768,10 +2771,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B127" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -2779,10 +2782,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B128" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -2790,10 +2793,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -2801,10 +2804,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B130" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C130">
         <v>3</v>
@@ -2812,10 +2815,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>305</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>306</v>
+        <v>182</v>
       </c>
       <c r="C131">
         <v>3</v>
@@ -2823,10 +2826,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B132" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -2834,32 +2837,32 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>67</v>
+        <v>305</v>
       </c>
       <c r="B133" t="s">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="B134" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B135" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C135">
         <v>2</v>
@@ -2867,32 +2870,32 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="B136" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B138" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -2900,10 +2903,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B139" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -2911,7 +2914,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>316</v>
+        <v>191</v>
+      </c>
+      <c r="B140" t="s">
+        <v>192</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -2919,10 +2925,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B141" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C141">
         <v>3</v>
@@ -2930,10 +2936,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>197</v>
-      </c>
-      <c r="B142" t="s">
-        <v>198</v>
+        <v>316</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -2941,10 +2944,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B143" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -2952,10 +2955,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B144" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -2963,10 +2966,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>307</v>
+        <v>199</v>
       </c>
       <c r="B145" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -2974,21 +2977,21 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -2996,76 +2999,76 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="B149" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="B150" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="B152" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="B153" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B154" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -3073,65 +3076,65 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="B155" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="B156" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="B157" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="B158" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="B159" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B160" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C160">
         <v>3</v>
@@ -3139,24 +3142,32 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="B161" t="s">
-        <v>298</v>
+        <v>84</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>299</v>
+        <v>217</v>
       </c>
       <c r="B162" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="C162">
         <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>318</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Warehouse_Ship_Days.xlsx
+++ b/Warehouse_Ship_Days.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ad0f44da62cdc4c/Documents/ARN-Invoice_Submissions/ARN-Invoice_Submissions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Projects\ASN_Sub_Automator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{75F57BB6-0627-405A-9409-1032204A7D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC2B8D06-B0B1-4259-86F2-A6DEE4AC81C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8481F6-BB59-4584-9521-D7A7DA135C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6294DBFF-D57F-4B78-B461-50A917CE3F08}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="15800" xr2:uid="{6294DBFF-D57F-4B78-B461-50A917CE3F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="325">
   <si>
     <t>DFW6</t>
   </si>
@@ -993,19 +993,43 @@
   </si>
   <si>
     <t>PPO4</t>
+  </si>
+  <si>
+    <t>ABQ2</t>
+  </si>
+  <si>
+    <t>ABQ2 - LOS LUNAS, NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABS4 - Las Vegas, NV</t>
+  </si>
+  <si>
+    <t>LAN2 - Lansing, MI</t>
+  </si>
+  <si>
+    <t>TMB8 - Homestead, FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPO4 - Crown Point, IN </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF232F3E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1028,8 +1052,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,8 +1075,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}" name="Table1" displayName="Table1" ref="A1:C163" totalsRowShown="0">
   <autoFilter ref="A1:C163" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
-    <sortCondition ref="A1:A162"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C163">
+    <sortCondition ref="A1:A163"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4D54B485-E84A-4D0C-98D3-AF6F63F95805}" name="Warehouse Code"/>
@@ -1381,15 +1406,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4662F2-FD79-40A4-9787-FD9B0FF81454}">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1426,30 +1451,33 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>314</v>
+      <c r="A4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>321</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1457,10 +1485,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1468,43 +1496,43 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>90</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1512,43 +1540,43 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1556,21 +1584,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1578,10 +1606,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1589,10 +1617,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1600,32 +1628,32 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1633,10 +1661,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1644,10 +1672,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1655,10 +1683,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1666,10 +1694,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1677,10 +1705,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1688,10 +1716,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1699,10 +1727,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1710,21 +1738,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1732,21 +1760,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1754,10 +1782,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1765,32 +1793,32 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1798,10 +1826,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1809,32 +1837,32 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1842,10 +1870,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1853,10 +1881,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1864,54 +1892,54 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1919,21 +1947,21 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1941,10 +1969,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1952,10 +1980,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>309</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>310</v>
+        <v>126</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1963,10 +1991,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1974,21 +2002,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1996,10 +2024,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2007,43 +2035,43 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>271</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>272</v>
+        <v>32</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -2051,21 +2079,21 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -2073,10 +2101,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -2084,10 +2112,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -2095,10 +2123,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -2109,7 +2137,7 @@
         <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -2117,40 +2145,43 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>313</v>
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -2158,21 +2189,21 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -2180,43 +2211,43 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -2224,10 +2255,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -2235,10 +2266,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -2246,54 +2277,54 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B81" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -2301,10 +2332,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="B84" t="s">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -2312,21 +2343,21 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -2334,10 +2365,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -2345,10 +2376,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -2356,10 +2387,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -2367,10 +2398,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -2378,10 +2409,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -2389,10 +2420,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>285</v>
+        <v>53</v>
       </c>
       <c r="B92" t="s">
-        <v>286</v>
+        <v>54</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -2400,10 +2431,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -2411,10 +2442,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2422,21 +2453,21 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>287</v>
+        <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>288</v>
+        <v>58</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>287</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2444,65 +2475,65 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>289</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2510,29 +2541,32 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>295</v>
+        <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>296</v>
+        <v>60</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="B105" t="s">
+        <v>296</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2661,21 +2695,21 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="B117" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>167</v>
+        <v>299</v>
       </c>
       <c r="B118" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -2683,10 +2717,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B119" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -2694,54 +2728,54 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="B120" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="B121" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B123" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="B124" t="s">
-        <v>304</v>
+        <v>64</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -2749,10 +2783,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>304</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -2760,21 +2794,21 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B127" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -2782,10 +2816,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -2793,10 +2827,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B129" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -2804,10 +2838,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C130">
         <v>3</v>
@@ -2815,10 +2849,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B131" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C131">
         <v>3</v>
@@ -2826,10 +2860,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -2837,10 +2871,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="B133" t="s">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="C133">
         <v>3</v>
@@ -2848,10 +2882,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -2859,21 +2893,21 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B136" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -2881,10 +2915,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B137" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C137">
         <v>2</v>
@@ -2892,21 +2926,21 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="B138" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B139" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -2914,10 +2948,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B140" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -2925,10 +2959,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C141">
         <v>3</v>
@@ -2936,7 +2970,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>316</v>
+        <v>193</v>
+      </c>
+      <c r="B142" t="s">
+        <v>194</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -2944,10 +2981,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="B143" t="s">
-        <v>196</v>
+        <v>323</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -2955,10 +2992,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -2966,10 +3003,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -2977,10 +3014,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B146" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C146">
         <v>3</v>
@@ -2988,10 +3025,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>307</v>
+        <v>201</v>
       </c>
       <c r="B147" t="s">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -2999,32 +3036,32 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="B148" t="s">
-        <v>74</v>
+        <v>308</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="B149" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B150" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C150">
         <v>3</v>
@@ -3032,32 +3069,32 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="B151" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B153" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -3065,21 +3102,21 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="B154" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B155" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -3087,10 +3124,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B156" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -3098,21 +3135,21 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="B157" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B158" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C158">
         <v>2</v>
@@ -3120,21 +3157,21 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="B159" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B160" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C160">
         <v>3</v>
@@ -3142,32 +3179,35 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="B161" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="B162" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>318</v>
+        <v>217</v>
+      </c>
+      <c r="B163" t="s">
+        <v>218</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Warehouse_Ship_Days.xlsx
+++ b/Warehouse_Ship_Days.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Projects\ASN_Sub_Automator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasem\Programming Projects\ASN_Sub_Automator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8481F6-BB59-4584-9521-D7A7DA135C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C54924C-C62B-4719-986A-9D34640B6055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="15800" xr2:uid="{6294DBFF-D57F-4B78-B461-50A917CE3F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6294DBFF-D57F-4B78-B461-50A917CE3F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="327">
   <si>
     <t>DFW6</t>
   </si>
@@ -1011,6 +1011,12 @@
   </si>
   <si>
     <t xml:space="preserve">PPO4 - Crown Point, IN </t>
+  </si>
+  <si>
+    <t>HSV2</t>
+  </si>
+  <si>
+    <t>HSV2 - MADISON, AL</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1079,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}" name="Table1" displayName="Table1" ref="A1:C163" totalsRowShown="0">
-  <autoFilter ref="A1:C163" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}" name="Table1" displayName="Table1" ref="A1:C164" totalsRowShown="0">
+  <autoFilter ref="A1:C164" xr:uid="{B6E22FBF-C66A-4900-86C7-48A68D156AD8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C163">
     <sortCondition ref="A1:A163"/>
   </sortState>
@@ -1404,20 +1410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4662F2-FD79-40A4-9787-FD9B0FF81454}">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>235</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>237</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>319</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>314</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>243</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>219</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>221</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>245</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>247</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -1681,7 +1687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>249</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>315</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>251</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>253</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>255</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>257</v>
       </c>
@@ -1835,7 +1841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>259</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>223</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>261</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>265</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>309</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>267</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>269</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>271</v>
       </c>
@@ -2066,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>135</v>
       </c>
@@ -2154,7 +2160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>273</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>138</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>313</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>225</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>227</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>311</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>142</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>275</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>277</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>279</v>
       </c>
@@ -2308,7 +2314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>281</v>
       </c>
@@ -2319,7 +2325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>144</v>
       </c>
@@ -2330,7 +2336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>146</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>283</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>43</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -2385,7 +2391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>47</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -2407,7 +2413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>51</v>
       </c>
@@ -2418,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>53</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>285</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>55</v>
       </c>
@@ -2451,7 +2457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>57</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>287</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>148</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>289</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>150</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -2517,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>293</v>
       </c>
@@ -2539,7 +2545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>59</v>
       </c>
@@ -2561,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>295</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>297</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>229</v>
       </c>
@@ -2594,7 +2600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>154</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>157</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>159</v>
       </c>
@@ -2649,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>161</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>163</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>61</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>165</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>318</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>299</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>167</v>
       </c>
@@ -2726,7 +2732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>169</v>
       </c>
@@ -2737,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>301</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>63</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>303</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>65</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>171</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>173</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>175</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>177</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>179</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>181</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>183</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>305</v>
       </c>
@@ -2891,7 +2897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>185</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>67</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>69</v>
       </c>
@@ -2924,7 +2930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>71</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>187</v>
       </c>
@@ -2946,7 +2952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>189</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>191</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>193</v>
       </c>
@@ -2979,7 +2985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>316</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>195</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>197</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>199</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>201</v>
       </c>
@@ -3034,7 +3040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>307</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>73</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>203</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>205</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>75</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>77</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>207</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>209</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>211</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>79</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>81</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>213</v>
       </c>
@@ -3177,7 +3183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>215</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>83</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>217</v>
       </c>
@@ -3208,6 +3214,17 @@
       </c>
       <c r="C163">
         <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>325</v>
+      </c>
+      <c r="B164" t="s">
+        <v>326</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
